--- a/1A_English/day3.xlsx
+++ b/1A_English/day3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hoc_nodejs\1A_English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoc_nodejs\1A_English\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC192674-5B41-4844-A792-DF7A35BD89AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -640,21 +641,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="54.5703125" customWidth="1"/>
+    <col min="5" max="5" width="97.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -662,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -670,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -678,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -686,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -694,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -702,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -710,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -718,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -726,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -734,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -742,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -750,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -758,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -766,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -774,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -782,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -790,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -798,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -806,7 +811,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/1A_English/day3.xlsx
+++ b/1A_English/day3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoc_nodejs\1A_English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hoc_nodejs\1A_English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC192674-5B41-4844-A792-DF7A35BD89AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -151,11 +150,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -182,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -641,11 +649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,10 +743,10 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -767,10 +775,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -807,14 +815,15 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1A_English/day3.xlsx
+++ b/1A_English/day3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hoc_nodejs\1A_English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoc_nodejs\1A_English\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAE3560-11EA-40C8-9F8B-11EC0B7F343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -649,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,8 +707,8 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -779,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -819,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
